--- a/StructureDefinition-profile-AuditEvent.xlsx
+++ b/StructureDefinition-profile-AuditEvent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4534" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3659" uniqueCount="619">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:42.986181-06:00</t>
+    <t>2026-02-17T14:42:26.734808-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -474,7 +474,7 @@
     <t>Indicates and enables segmentation of various severity including debugging from critical.</t>
   </si>
   <si>
-    <t>Element `AuditEvent.severity` is will have a context of AuditEvent based on following the parent source element upwards and mapping to `AuditEvent`.</t>
+    <t>Element `AuditEvent.severity` has a context of AuditEvent based on following the parent source element upwards and mapping to `AuditEvent`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -498,7 +498,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AuditEvent.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `AuditEvent.basedOn` is will have a context of AuditEvent based on following the parent source element upwards and mapping to `AuditEvent`.</t>
+Element `AuditEvent.basedOn` has a context of AuditEvent based on following the parent source element upwards and mapping to `AuditEvent`.</t>
   </si>
   <si>
     <t>AuditEvent.extension:patient</t>
@@ -514,7 +514,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AuditEvent.patient` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `AuditEvent.patient` is will have a context of AuditEvent based on following the parent source element upwards and mapping to `AuditEvent`.</t>
+Element `AuditEvent.patient` has a context of AuditEvent based on following the parent source element upwards and mapping to `AuditEvent`.</t>
   </si>
   <si>
     <t>AuditEvent.extension:encounter</t>
@@ -530,7 +530,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AuditEvent.encounter` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `AuditEvent.encounter` is will have a context of AuditEvent based on following the parent source element upwards and mapping to `AuditEvent`.</t>
+Element `AuditEvent.encounter` has a context of AuditEvent based on following the parent source element upwards and mapping to `AuditEvent`.</t>
   </si>
   <si>
     <t>AuditEvent.modifierExtension</t>
@@ -640,7 +640,7 @@
     <t>Classification of the type of event.</t>
   </si>
   <si>
-    <t>Element `AuditEvent.category` is mapped to FHIR R4 element `AuditEvent.type`.</t>
+    <t>Element `AuditEvent.category` has is mapped to FHIR R4 element `AuditEvent.type`, but has no comparisons.</t>
   </si>
   <si>
     <t>AuditEvent.type.system</t>
@@ -786,7 +786,7 @@
     <t>Describes what happened. The most specific code for the event.</t>
   </si>
   <si>
-    <t>Element `AuditEvent.code` is mapped to FHIR R4 element `AuditEvent.subtype`.</t>
+    <t>Element `AuditEvent.code` has is mapped to FHIR R4 element `AuditEvent.subtype`, but has no comparisons.</t>
   </si>
   <si>
     <t>AuditEvent.subtype.system</t>
@@ -884,7 +884,7 @@
     <t>The time or period during which the activity occurred.</t>
   </si>
   <si>
-    <t>Element `AuditEvent.occurred[x]` is mapped to FHIR R4 element `AuditEvent.period`.</t>
+    <t>Element `AuditEvent.occurred[x]` has is mapped to FHIR R4 element `AuditEvent.period`, but has no comparisons.</t>
   </si>
   <si>
     <t>AuditEvent.period.start</t>
@@ -1014,7 +1014,7 @@
     <t>Indicates whether the event succeeded or failed. A free text descripiton can be given in outcome.text.</t>
   </si>
   <si>
-    <t>Element `AuditEvent.outcome` is mapped to FHIR R4 element `AuditEvent.outcome`.</t>
+    <t>Element `AuditEvent.outcome` has is mapped to FHIR R4 element `AuditEvent.outcome`, but has no comparisons.</t>
   </si>
   <si>
     <t>AuditEvent.outcome.value</t>
@@ -1130,10 +1130,21 @@
     <t>AuditEvent.agent.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>AuditEvent.agent.extension:agent</t>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.agent|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for AuditEvent.agent from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `AuditEvent.agent` has is mapped to FHIR R4 element `AuditEvent.agent`, but has no comparisons.
+Note available implied context: `AuditEvent.entity.agent` because `AuditEvent.entity.agent` is defined as a content reference to `AuditEvent.agent`.</t>
   </si>
   <si>
     <t>AuditEvent.agent.modifierExtension</t>
@@ -1249,110 +1260,6 @@
   </si>
   <si>
     <t>Provenance.agent.who</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.who.id</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.who.extension</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.who.extension:who</t>
-  </si>
-  <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>Cross-version extension for AuditEvent.agent.who from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `AuditEvent.agent.who` is part of an existing definition because parent element `AuditEvent.agent` requires a component extension (e.g., if this element is used as a content reference).
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AuditEvent.agent.who` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `AuditEvent.agent.who` is mapped to FHIR R4 element `AuditEvent.agent.who`.</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.who.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.who.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.who.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.who.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>AuditEvent.agent.altId</t>
@@ -1509,6 +1416,12 @@
     <t>AuditEvent.agent.network.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>AuditEvent.agent.network.modifierExtension</t>
   </si>
   <si>
@@ -1623,7 +1536,7 @@
     <t>The actor that is reporting the event.</t>
   </si>
   <si>
-    <t>Element `AuditEvent.source` is mapped to FHIR R4 element `AuditEvent.source`.</t>
+    <t>Element `AuditEvent.source` has is mapped to FHIR R4 element `AuditEvent.source`, but has no comparisons.</t>
   </si>
   <si>
     <t>AuditEvent.source.modifierExtension</t>
@@ -1731,23 +1644,20 @@
     <t>AuditEvent.entity.extension</t>
   </si>
   <si>
-    <t>AuditEvent.entity.extension:agent</t>
-  </si>
-  <si>
-    <t>agent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.entity.agent|0.0.1-snapshot-3}
+    <t>AuditEvent.entity.extension:entity</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.entity|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for AuditEvent.entity.agent from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The entity is attributed to an agent to express the agent's responsibility for that entity in the activity. This is most used to indicate when persistence media (the entity) are used by an agent. For example when importing data from a device, the device would be described in an entity, and the user importing data from that media would be indicated as the entity.agent.</t>
-  </si>
-  <si>
-    <t>Element `AuditEvent.entity.agent` is will have a context of AuditEvent.entity based on following the parent source element upwards and mapping to `AuditEvent`.</t>
+    <t>Cross-version extension for AuditEvent.entity from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `AuditEvent.entity` has is mapped to FHIR R4 element `AuditEvent.entity`, but has no comparisons.</t>
   </si>
   <si>
     <t>AuditEvent.entity.modifierExtension</t>
@@ -1835,43 +1745,6 @@
     <t>Entity.role</t>
   </si>
   <si>
-    <t>AuditEvent.entity.role.id</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.role.extension</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.role.extension:role</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.entity.role|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for AuditEvent.entity.role from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `AuditEvent.entity.role` is mapped to FHIR R4 element `AuditEvent.entity.role`.</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.role.system</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.role.version</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.role.code</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.role.display</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.role.userSelected</t>
-  </si>
-  <si>
     <t>AuditEvent.entity.lifecycle</t>
   </si>
   <si>
@@ -1924,43 +1797,6 @@
   </si>
   <si>
     <t>ParticipantObjectSensitivity</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.securityLabel.id</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.securityLabel.extension</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.securityLabel.extension:securityLabel</t>
-  </si>
-  <si>
-    <t>securityLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.entity.securityLabel|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for AuditEvent.entity.securityLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `AuditEvent.entity.securityLabel` is mapped to FHIR R4 element `AuditEvent.entity.securityLabel`.</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.securityLabel.system</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.securityLabel.version</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.securityLabel.code</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.securityLabel.display</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.securityLabel.userSelected</t>
   </si>
   <si>
     <t>AuditEvent.entity.name</t>
@@ -2053,22 +1889,6 @@
   </si>
   <si>
     <t>AuditEvent.entity.detail.extension</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.detail.extension:detail</t>
-  </si>
-  <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.entity.detail|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for AuditEvent.entity.detail from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `AuditEvent.entity.detail` is mapped to FHIR R4 element `AuditEvent.entity.detail`.</t>
   </si>
   <si>
     <t>AuditEvent.entity.detail.modifierExtension</t>
@@ -2415,7 +2235,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP118"/>
+  <dimension ref="A1:AP95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2424,9 +2244,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.18359375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.18359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.49609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -8366,11 +8186,11 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -8388,14 +8208,12 @@
         <v>136</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>359</v>
+        <v>137</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -8432,16 +8250,14 @@
         <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>194</v>
@@ -8462,7 +8278,7 @@
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8479,18 +8295,20 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>360</v>
+      </c>
       <c r="D51" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>81</v>
@@ -8499,26 +8317,24 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>136</v>
+        <v>361</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8566,7 +8382,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>365</v>
+        <v>194</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8575,7 +8391,7 @@
         <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>142</v>
@@ -8584,7 +8400,7 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
@@ -8601,42 +8417,46 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>332</v>
+        <v>136</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8660,13 +8480,13 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>369</v>
+        <v>79</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -8684,45 +8504,45 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>372</v>
+        <v>134</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>375</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8733,7 +8553,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8748,17 +8568,13 @@
         <v>332</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8782,13 +8598,13 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>381</v>
+        <v>178</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -8806,13 +8622,13 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
@@ -8821,41 +8637,41 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>354</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8864,22 +8680,22 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8904,13 +8720,13 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
@@ -8928,13 +8744,13 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
@@ -8943,34 +8759,34 @@
         <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>354</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>79</v>
+        <v>390</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8986,19 +8802,23 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>187</v>
+        <v>391</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>188</v>
+        <v>392</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
       </c>
@@ -9046,7 +8866,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>190</v>
+        <v>389</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -9058,33 +8878,33 @@
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>191</v>
+        <v>397</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>79</v>
+        <v>398</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>79</v>
+        <v>400</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9092,10 +8912,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -9107,16 +8927,18 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>137</v>
+        <v>402</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>138</v>
+        <v>403</v>
       </c>
       <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
       </c>
@@ -9152,46 +8974,46 @@
         <v>79</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>194</v>
+        <v>401</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>79</v>
+        <v>405</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>79</v>
@@ -9199,20 +9021,18 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>91</v>
@@ -9227,18 +9047,18 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>79</v>
       </c>
@@ -9286,34 +9106,34 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>194</v>
+        <v>407</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>412</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>79</v>
@@ -9321,10 +9141,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9332,7 +9152,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>91</v>
@@ -9347,18 +9167,20 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
       </c>
@@ -9406,16 +9228,16 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>103</v>
@@ -9424,13 +9246,13 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>134</v>
+        <v>418</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>79</v>
+        <v>419</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>79</v>
@@ -9441,10 +9263,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9464,20 +9286,18 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>105</v>
+        <v>421</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -9502,13 +9322,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -9526,7 +9346,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9541,30 +9361,30 @@
         <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>424</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>134</v>
+        <v>425</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9575,7 +9395,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9584,21 +9404,23 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>419</v>
+        <v>105</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9646,13 +9468,13 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
@@ -9664,27 +9486,27 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9704,21 +9526,21 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9742,13 +9564,13 @@
         <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>79</v>
@@ -9766,7 +9588,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9784,13 +9606,13 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>134</v>
+        <v>443</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -9801,10 +9623,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9827,18 +9649,16 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>187</v>
+        <v>346</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>433</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9886,7 +9706,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9904,16 +9724,16 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>354</v>
+        <v>426</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>79</v>
@@ -9921,10 +9741,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9950,15 +9770,13 @@
         <v>187</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>437</v>
+        <v>188</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>438</v>
+        <v>189</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" t="s" s="2">
-        <v>439</v>
-      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>79</v>
       </c>
@@ -10006,7 +9824,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>436</v>
+        <v>190</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -10018,22 +9836,22 @@
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>440</v>
+        <v>191</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>79</v>
@@ -10041,21 +9859,21 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -10064,23 +9882,21 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>227</v>
+        <v>136</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>446</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>79</v>
       </c>
@@ -10128,31 +9944,31 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>442</v>
+        <v>194</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>447</v>
+        <v>191</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
@@ -10163,42 +9979,46 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>450</v>
+        <v>136</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>451</v>
+        <v>366</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
       </c>
@@ -10246,45 +10066,45 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>449</v>
+        <v>368</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>454</v>
+        <v>134</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>456</v>
+        <v>79</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10295,7 +10115,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -10307,19 +10127,19 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -10368,13 +10188,13 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
@@ -10386,27 +10206,27 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>341</v>
+        <v>426</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10429,17 +10249,17 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>79</v>
@@ -10464,13 +10284,13 @@
         <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>178</v>
+        <v>258</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -10488,7 +10308,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10506,13 +10326,13 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>455</v>
+        <v>426</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
@@ -10523,10 +10343,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10537,7 +10357,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10549,15 +10369,17 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>79</v>
@@ -10582,13 +10404,13 @@
         <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>79</v>
@@ -10606,13 +10428,13 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
@@ -10624,16 +10446,16 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>455</v>
+        <v>341</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>79</v>
@@ -10641,10 +10463,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10652,7 +10474,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>91</v>
@@ -10667,16 +10489,20 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>187</v>
+        <v>346</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>188</v>
+        <v>476</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10724,10 +10550,10 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>190</v>
+        <v>475</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>91</v>
@@ -10736,19 +10562,19 @@
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>191</v>
+        <v>480</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>79</v>
@@ -10759,21 +10585,21 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10785,17 +10611,15 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>359</v>
+        <v>188</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10844,19 +10668,19 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
@@ -10879,18 +10703,18 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>81</v>
@@ -10899,26 +10723,22 @@
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>363</v>
+        <v>137</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10954,19 +10774,17 @@
         <v>79</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC71" s="2"/>
       <c r="AD71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>365</v>
+        <v>194</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10984,7 +10802,7 @@
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
@@ -11001,18 +10819,20 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>91</v>
@@ -11027,20 +10847,18 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>187</v>
+        <v>487</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>485</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>79</v>
       </c>
@@ -11088,34 +10906,34 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>481</v>
+        <v>194</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>79</v>
@@ -11123,43 +10941,45 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>490</v>
+        <v>366</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O73" t="s" s="2">
-        <v>492</v>
+        <v>171</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -11184,13 +11004,13 @@
         <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>79</v>
@@ -11208,31 +11028,31 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>489</v>
+        <v>368</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>486</v>
+        <v>134</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -11243,10 +11063,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11257,7 +11077,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -11269,18 +11089,18 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>494</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>79</v>
       </c>
@@ -11304,13 +11124,13 @@
         <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>79</v>
@@ -11328,13 +11148,13 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>79</v>
@@ -11346,16 +11166,16 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>341</v>
+        <v>482</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>79</v>
@@ -11363,14 +11183,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11386,22 +11206,20 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>79</v>
@@ -11450,7 +11268,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>91</v>
@@ -11468,13 +11286,13 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>507</v>
+        <v>397</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>509</v>
+        <v>482</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>79</v>
@@ -11485,10 +11303,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11499,7 +11317,7 @@
         <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -11511,16 +11329,18 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>188</v>
+        <v>505</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>189</v>
+        <v>506</v>
       </c>
       <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>507</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>79</v>
       </c>
@@ -11544,13 +11364,13 @@
         <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>508</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>79</v>
+        <v>509</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>79</v>
@@ -11568,31 +11388,31 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>190</v>
+        <v>504</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>191</v>
+        <v>510</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>79</v>
+        <v>511</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>79</v>
@@ -11603,18 +11423,18 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>79</v>
+        <v>513</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>81</v>
@@ -11629,16 +11449,20 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>136</v>
+        <v>346</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>137</v>
+        <v>514</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11674,17 +11498,19 @@
         <v>79</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC77" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>194</v>
+        <v>512</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11696,43 +11522,41 @@
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>142</v>
+        <v>518</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>79</v>
+        <v>520</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>91</v>
@@ -11747,17 +11571,15 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>514</v>
+        <v>187</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>515</v>
+        <v>188</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>79</v>
@@ -11806,25 +11628,25 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
@@ -11841,14 +11663,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11861,26 +11683,22 @@
         <v>79</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>363</v>
+        <v>137</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>79</v>
       </c>
@@ -11916,19 +11734,17 @@
         <v>79</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC79" s="2"/>
       <c r="AD79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>365</v>
+        <v>194</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11946,7 +11762,7 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
@@ -11963,12 +11779,14 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="C80" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>526</v>
+      </c>
       <c r="D80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11977,7 +11795,7 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11989,18 +11807,18 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>187</v>
+        <v>527</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>79</v>
       </c>
@@ -12048,31 +11866,31 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>519</v>
+        <v>194</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>523</v>
+        <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>524</v>
+        <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -12083,43 +11901,45 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>526</v>
+        <v>365</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>388</v>
+        <v>136</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>527</v>
+        <v>366</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O81" t="s" s="2">
-        <v>529</v>
+        <v>171</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -12168,31 +11988,31 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>525</v>
+        <v>368</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>394</v>
+        <v>134</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -12217,7 +12037,7 @@
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -12226,21 +12046,19 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>174</v>
+        <v>532</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>534</v>
-      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>79</v>
       </c>
@@ -12264,13 +12082,13 @@
         <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>79</v>
@@ -12294,7 +12112,7 @@
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>79</v>
@@ -12306,38 +12124,38 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>537</v>
+        <v>397</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>509</v>
+        <v>184</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>79</v>
+        <v>536</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>540</v>
+        <v>79</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -12349,19 +12167,19 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>346</v>
+        <v>174</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O83" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -12386,13 +12204,13 @@
         <v>79</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>79</v>
+        <v>542</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>79</v>
@@ -12410,45 +12228,45 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>184</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12471,16 +12289,18 @@
         <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>188</v>
+        <v>549</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>189</v>
+        <v>550</v>
       </c>
       <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12504,13 +12324,13 @@
         <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>79</v>
+        <v>553</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>79</v>
@@ -12528,7 +12348,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>190</v>
+        <v>548</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12540,22 +12360,22 @@
         <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>191</v>
+        <v>554</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>79</v>
+        <v>555</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>79</v>
+        <v>557</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>79</v>
@@ -12563,10 +12383,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12577,7 +12397,7 @@
         <v>80</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -12589,16 +12409,20 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>137</v>
+        <v>559</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12622,71 +12446,71 @@
         <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>79</v>
+        <v>560</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>79</v>
+        <v>563</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC85" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>194</v>
+        <v>558</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>79</v>
+        <v>564</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>79</v>
+        <v>565</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>79</v>
+        <v>557</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>79</v>
+        <v>566</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="C86" t="s" s="2">
-        <v>553</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12707,18 +12531,20 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>554</v>
+        <v>174</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>570</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>571</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12742,13 +12568,13 @@
         <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>79</v>
+        <v>572</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>79</v>
+        <v>573</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>79</v>
@@ -12766,7 +12592,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>194</v>
+        <v>567</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12775,22 +12601,22 @@
         <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>79</v>
+        <v>575</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>79</v>
@@ -12801,45 +12627,45 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>363</v>
+        <v>577</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>364</v>
+        <v>578</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>170</v>
+        <v>579</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>171</v>
+        <v>580</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>79</v>
@@ -12888,34 +12714,34 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>365</v>
+        <v>576</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>79</v>
+        <v>581</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>134</v>
+        <v>582</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>79</v>
+        <v>583</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>79</v>
+        <v>584</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>79</v>
@@ -12923,10 +12749,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>559</v>
+        <v>585</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>559</v>
+        <v>585</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12946,19 +12772,21 @@
         <v>79</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>560</v>
+        <v>187</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>562</v>
+        <v>587</v>
       </c>
       <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>580</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>79</v>
       </c>
@@ -13006,7 +12834,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>559</v>
+        <v>585</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -13024,27 +12852,27 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>394</v>
+        <v>588</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>184</v>
+        <v>556</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>564</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>565</v>
+        <v>590</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>565</v>
+        <v>590</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13064,22 +12892,22 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>174</v>
+        <v>591</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>568</v>
+        <v>594</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>79</v>
@@ -13104,13 +12932,13 @@
         <v>79</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>570</v>
+        <v>79</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>571</v>
+        <v>79</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>79</v>
@@ -13128,7 +12956,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>565</v>
+        <v>590</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -13137,7 +12965,7 @@
         <v>91</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>79</v>
+        <v>581</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>103</v>
@@ -13146,27 +12974,27 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>572</v>
+        <v>596</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>573</v>
+        <v>597</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>184</v>
+        <v>556</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>574</v>
+        <v>79</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>575</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>576</v>
+        <v>598</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>576</v>
+        <v>598</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13177,7 +13005,7 @@
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
@@ -13189,17 +13017,17 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>174</v>
+        <v>346</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>577</v>
+        <v>599</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>579</v>
+        <v>601</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>79</v>
@@ -13224,13 +13052,13 @@
         <v>79</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>580</v>
+        <v>79</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>581</v>
+        <v>79</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>79</v>
@@ -13248,13 +13076,13 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>576</v>
+        <v>598</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>79</v>
@@ -13266,16 +13094,16 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>585</v>
+        <v>79</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>79</v>
@@ -13283,10 +13111,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13401,14 +13229,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13430,12 +13258,14 @@
         <v>136</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>137</v>
+        <v>451</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>79</v>
@@ -13472,16 +13302,16 @@
         <v>79</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>194</v>
@@ -13502,7 +13332,7 @@
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>79</v>
+        <v>191</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
@@ -13519,46 +13349,46 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>588</v>
+        <v>606</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>589</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>590</v>
+        <v>136</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>591</v>
+        <v>366</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>578</v>
+        <v>367</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O93" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13606,7 +13436,7 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>194</v>
+        <v>368</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13624,7 +13454,7 @@
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
@@ -13641,10 +13471,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13652,7 +13482,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>91</v>
@@ -13664,23 +13494,19 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>202</v>
+        <v>608</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>79</v>
       </c>
@@ -13728,10 +13554,10 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>206</v>
+        <v>607</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>91</v>
@@ -13746,13 +13572,13 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>207</v>
+        <v>510</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>79</v>
+        <v>610</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>79</v>
@@ -13763,10 +13589,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13774,7 +13600,7 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>91</v>
@@ -13786,21 +13612,23 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>187</v>
+        <v>612</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>209</v>
+        <v>613</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>210</v>
+        <v>614</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>616</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>79</v>
       </c>
@@ -13848,10 +13676,10 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>212</v>
+        <v>611</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>91</v>
@@ -13866,2788 +13694,18 @@
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>213</v>
+        <v>617</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>79</v>
+        <v>618</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>79</v>
+        <v>556</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="P96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO96" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP96" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="P97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO97" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP97" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="P98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO98" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP98" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="P99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AO99" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AP99" t="s" s="2">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="P100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AO100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP100" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP101" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP102" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="C103" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="D103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP103" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="P104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP104" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O105" s="2"/>
-      <c r="P105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP105" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="P106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP106" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="P107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP107" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="P108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP108" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="P109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AO109" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="AP109" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="P110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AO110" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP110" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="P111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>648</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AO111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP111" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" t="s" s="2">
-        <v>653</v>
-      </c>
-      <c r="P112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP112" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP113" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-      <c r="P114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q114" s="2"/>
-      <c r="R114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC114" s="2"/>
-      <c r="AD114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP114" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="C115" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="D115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>652</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="O115" s="2"/>
-      <c r="P115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q115" s="2"/>
-      <c r="R115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP115" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>663</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O116" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="P116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q116" s="2"/>
-      <c r="R116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP116" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
-      <c r="P117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q117" s="2"/>
-      <c r="R117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP117" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="P118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q118" s="2"/>
-      <c r="R118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP118" t="s" s="2">
         <v>79</v>
       </c>
     </row>

--- a/StructureDefinition-profile-AuditEvent.xlsx
+++ b/StructureDefinition-profile-AuditEvent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.734808-06:00</t>
+    <t>2026-02-20T11:59:20.7316114-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/AuditEvent|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/AuditEvent</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -464,7 +464,7 @@
     <t>severity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.severity|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.severity}
 </t>
   </si>
   <si>
@@ -487,7 +487,7 @@
     <t>basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
@@ -630,7 +630,7 @@
     <t>category</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.category|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.category}
 </t>
   </si>
   <si>
@@ -776,7 +776,7 @@
     <t>code</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.code|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.code}
 </t>
   </si>
   <si>
@@ -874,7 +874,7 @@
     <t>occurred</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.occurred|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.occurred}
 </t>
   </si>
   <si>
@@ -1004,7 +1004,7 @@
     <t>outcome</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.outcome|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.outcome}
 </t>
   </si>
   <si>
@@ -1060,7 +1060,7 @@
     <t>The reason the activity took place.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse|3.1.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1136,7 +1136,7 @@
     <t>agent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.agent|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.agent}
 </t>
   </si>
   <si>
@@ -1526,7 +1526,7 @@
     <t>source</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.source|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.source}
 </t>
   </si>
   <si>
@@ -1650,7 +1650,7 @@
     <t>entity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.entity|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.entity}
 </t>
   </si>
   <si>
@@ -2269,7 +2269,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="66.3046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.78125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.26171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-AuditEvent.xlsx
+++ b/StructureDefinition-profile-AuditEvent.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3659" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4113" uniqueCount="622">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.7316114-06:00</t>
+    <t>2026-02-21T13:36:54.1305106-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/AuditEvent</t>
+    <t>http://hl7.org/fhir/StructureDefinition/AuditEvent|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -464,7 +464,7 @@
     <t>severity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.severity}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.severity|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -481,58 +481,6 @@
 </t>
   </si>
   <si>
-    <t>AuditEvent.extension:basedOn</t>
-  </si>
-  <si>
-    <t>basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for AuditEvent.basedOn from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CarePlan,http://hl7.org/fhir/StructureDefinition/DeviceRequest,http://hl7.org/fhir/StructureDefinition/ImmunizationRecommendation,http://hl7.org/fhir/StructureDefinition/MedicationRequest,http://hl7.org/fhir/StructureDefinition/NutritionOrder,http://hl7.org/fhir/StructureDefinition/ServiceRequest,http://hl7.org/fhir/StructureDefinition/Task in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AuditEvent.basedOn` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `AuditEvent.basedOn` has a context of AuditEvent based on following the parent source element upwards and mapping to `AuditEvent`.</t>
-  </si>
-  <si>
-    <t>AuditEvent.extension:patient</t>
-  </si>
-  <si>
-    <t>patient</t>
-  </si>
-  <si>
-    <t>Cross-version extension for AuditEvent.patient from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Patient in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AuditEvent.patient` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `AuditEvent.patient` has a context of AuditEvent based on following the parent source element upwards and mapping to `AuditEvent`.</t>
-  </si>
-  <si>
-    <t>AuditEvent.extension:encounter</t>
-  </si>
-  <si>
-    <t>encounter</t>
-  </si>
-  <si>
-    <t>Cross-version extension for AuditEvent.encounter from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Encounter in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `AuditEvent.encounter` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `AuditEvent.encounter` has a context of AuditEvent based on following the parent source element upwards and mapping to `AuditEvent`.</t>
-  </si>
-  <si>
     <t>AuditEvent.modifierExtension</t>
   </si>
   <si>
@@ -630,7 +578,7 @@
     <t>category</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.category}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.category|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -640,7 +588,7 @@
     <t>Classification of the type of event.</t>
   </si>
   <si>
-    <t>Element `AuditEvent.category` has is mapped to FHIR R4 element `AuditEvent.type`, but has no comparisons.</t>
+    <t>Element `AuditEvent.category` is mapped to FHIR R4 element `AuditEvent.type` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>AuditEvent.type.system</t>
@@ -776,7 +724,7 @@
     <t>code</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.code}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.code|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -786,7 +734,7 @@
     <t>Describes what happened. The most specific code for the event.</t>
   </si>
   <si>
-    <t>Element `AuditEvent.code` has is mapped to FHIR R4 element `AuditEvent.subtype`, but has no comparisons.</t>
+    <t>Element `AuditEvent.code` is mapped to FHIR R4 element `AuditEvent.subtype` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>AuditEvent.subtype.system</t>
@@ -874,7 +822,7 @@
     <t>occurred</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.occurred}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.occurred|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -884,7 +832,7 @@
     <t>The time or period during which the activity occurred.</t>
   </si>
   <si>
-    <t>Element `AuditEvent.occurred[x]` has is mapped to FHIR R4 element `AuditEvent.period`, but has no comparisons.</t>
+    <t>Element `AuditEvent.occurred[x]` is mapped to FHIR R4 element `AuditEvent.period` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>AuditEvent.period.start</t>
@@ -1004,7 +952,7 @@
     <t>outcome</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.outcome}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.outcome|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -1014,7 +962,7 @@
     <t>Indicates whether the event succeeded or failed. A free text descripiton can be given in outcome.text.</t>
   </si>
   <si>
-    <t>Element `AuditEvent.outcome` has is mapped to FHIR R4 element `AuditEvent.outcome`, but has no comparisons.</t>
+    <t>Element `AuditEvent.outcome` is mapped to FHIR R4 element `AuditEvent.outcome` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>AuditEvent.outcome.value</t>
@@ -1060,7 +1008,7 @@
     <t>The reason the activity took place.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse|3.1.0</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1128,23 +1076,6 @@
   </si>
   <si>
     <t>AuditEvent.agent.extension</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.extension:agent</t>
-  </si>
-  <si>
-    <t>agent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.agent}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for AuditEvent.agent from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `AuditEvent.agent` has is mapped to FHIR R4 element `AuditEvent.agent`, but has no comparisons.
-Note available implied context: `AuditEvent.entity.agent` because `AuditEvent.entity.agent` is defined as a content reference to `AuditEvent.agent`.</t>
   </si>
   <si>
     <t>AuditEvent.agent.modifierExtension</t>
@@ -1526,7 +1457,7 @@
     <t>source</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.source}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.source|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -1536,7 +1467,7 @@
     <t>The actor that is reporting the event.</t>
   </si>
   <si>
-    <t>Element `AuditEvent.source` has is mapped to FHIR R4 element `AuditEvent.source`, but has no comparisons.</t>
+    <t>Element `AuditEvent.source` is mapped to FHIR R4 element `AuditEvent.source` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>AuditEvent.source.modifierExtension</t>
@@ -1644,22 +1575,6 @@
     <t>AuditEvent.entity.extension</t>
   </si>
   <si>
-    <t>AuditEvent.entity.extension:entity</t>
-  </si>
-  <si>
-    <t>entity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.entity}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for AuditEvent.entity from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `AuditEvent.entity` has is mapped to FHIR R4 element `AuditEvent.entity`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>AuditEvent.entity.modifierExtension</t>
   </si>
   <si>
@@ -1745,6 +1660,43 @@
     <t>Entity.role</t>
   </si>
   <si>
+    <t>AuditEvent.entity.role.id</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.role.extension</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.role.extension:role</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.entity.role|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for AuditEvent.entity.role from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `AuditEvent.entity.role` is mapped to FHIR R4 element `AuditEvent.entity.role` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.role.system</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.role.version</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.role.code</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.role.display</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.role.userSelected</t>
+  </si>
+  <si>
     <t>AuditEvent.entity.lifecycle</t>
   </si>
   <si>
@@ -1797,6 +1749,43 @@
   </si>
   <si>
     <t>ParticipantObjectSensitivity</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.securityLabel.id</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.securityLabel.extension</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.securityLabel.extension:securityLabel</t>
+  </si>
+  <si>
+    <t>securityLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.entity.securityLabel|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for AuditEvent.entity.securityLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `AuditEvent.entity.securityLabel` is mapped to FHIR R4 element `AuditEvent.entity.securityLabel` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.securityLabel.system</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.securityLabel.version</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.securityLabel.code</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.securityLabel.display</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.securityLabel.userSelected</t>
   </si>
   <si>
     <t>AuditEvent.entity.name</t>
@@ -1889,6 +1878,22 @@
   </si>
   <si>
     <t>AuditEvent.entity.detail.extension</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.detail.extension:detail</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-AuditEvent.entity.detail|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for AuditEvent.entity.detail from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `AuditEvent.entity.detail` is mapped to FHIR R4 element `AuditEvent.entity.detail` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>AuditEvent.entity.detail.modifierExtension</t>
@@ -2235,7 +2240,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP95"/>
+  <dimension ref="A1:AP107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2244,9 +2249,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.18359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.4453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="37.18359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2269,7 +2274,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="66.3046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.26171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.78125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3496,13 +3501,11 @@
         <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3515,24 +3518,26 @@
         <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3580,7 +3585,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3598,7 +3603,7 @@
         <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>79</v>
@@ -3615,20 +3620,18 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C12" t="s" s="2">
         <v>157</v>
       </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>91</v>
@@ -3640,21 +3643,21 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="O12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3678,13 +3681,13 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -3702,34 +3705,34 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>79</v>
@@ -3737,14 +3740,12 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3765,17 +3766,15 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -3824,25 +3823,25 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>79</v>
@@ -3859,14 +3858,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3879,7 +3878,7 @@
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>79</v>
@@ -3888,17 +3887,13 @@
         <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3934,19 +3929,19 @@
         <v>79</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3964,7 +3959,7 @@
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>79</v>
@@ -3981,21 +3976,23 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>180</v>
+      </c>
       <c r="D15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -4004,21 +4001,21 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>79</v>
       </c>
@@ -4042,58 +4039,58 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AG15" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>79</v>
@@ -4101,10 +4098,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4124,19 +4121,23 @@
         <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>79</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>79</v>
@@ -4233,7 +4234,7 @@
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -4242,18 +4243,20 @@
         <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -4290,37 +4293,37 @@
         <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -4337,14 +4340,12 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4353,7 +4354,7 @@
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -4362,21 +4363,21 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="O18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4424,25 +4425,25 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -4459,10 +4460,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4485,19 +4486,17 @@
         <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4546,7 +4545,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4564,7 +4563,7 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4581,10 +4580,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4607,18 +4606,20 @@
         <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4684,7 +4685,7 @@
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -4701,10 +4702,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4715,7 +4716,7 @@
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4727,17 +4728,17 @@
         <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -4762,13 +4763,13 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
@@ -4792,7 +4793,7 @@
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
@@ -4804,13 +4805,13 @@
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4821,10 +4822,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4844,21 +4845,19 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
+        <v>173</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>223</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4906,7 +4905,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4918,13 +4917,13 @@
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -4952,10 +4951,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4964,23 +4963,19 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>227</v>
+        <v>136</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>137</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -5016,37 +5011,37 @@
         <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
@@ -5063,21 +5058,23 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -5086,21 +5083,21 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5124,31 +5121,31 @@
         <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5160,19 +5157,19 @@
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -5183,10 +5180,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5206,19 +5203,23 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5278,7 +5279,7 @@
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
@@ -5301,10 +5302,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5312,10 +5313,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5324,18 +5325,20 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>137</v>
+        <v>193</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -5372,37 +5375,37 @@
         <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5419,20 +5422,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>91</v>
@@ -5444,21 +5445,21 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5506,25 +5507,25 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5541,10 +5542,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5567,19 +5568,17 @@
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5628,7 +5627,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5646,7 +5645,7 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5663,10 +5662,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5689,18 +5688,20 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5748,7 +5749,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5766,7 +5767,7 @@
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
@@ -5783,10 +5784,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5812,14 +5813,14 @@
         <v>111</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5844,13 +5845,13 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
@@ -5868,7 +5869,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5886,13 +5887,13 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5903,10 +5904,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5926,21 +5927,21 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5988,7 +5989,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -6003,30 +6004,30 @@
         <v>103</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6046,23 +6047,19 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>228</v>
+        <v>172</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
       </c>
@@ -6110,7 +6107,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6122,13 +6119,13 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -6145,10 +6142,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6159,7 +6156,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -6168,21 +6165,19 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>255</v>
+        <v>137</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>256</v>
+        <v>138</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>79</v>
       </c>
@@ -6206,55 +6201,55 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6265,12 +6260,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6291,16 +6288,16 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6350,45 +6347,45 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>262</v>
+        <v>178</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>272</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6408,18 +6405,20 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>188</v>
+        <v>267</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -6468,7 +6467,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6477,16 +6476,16 @@
         <v>91</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6503,10 +6502,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6517,7 +6516,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6526,23 +6525,27 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>136</v>
+        <v>266</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>137</v>
+        <v>274</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>276</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="R36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6574,37 +6577,37 @@
         <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>194</v>
+        <v>278</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6621,20 +6624,18 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>91</v>
@@ -6646,21 +6647,23 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6708,45 +6711,45 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>194</v>
+        <v>280</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>79</v>
+        <v>286</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6769,16 +6772,16 @@
         <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>282</v>
+        <v>111</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6804,13 +6807,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6828,7 +6831,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6837,7 +6840,7 @@
         <v>91</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>103</v>
@@ -6846,13 +6849,13 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6863,10 +6866,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6886,27 +6889,23 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>282</v>
+        <v>171</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q39" t="s" s="2">
-        <v>293</v>
-      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6950,7 +6949,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>294</v>
+        <v>174</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6959,16 +6958,16 @@
         <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6985,10 +6984,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6996,10 +6995,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -7008,23 +7007,19 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>297</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>298</v>
+        <v>137</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
       </c>
@@ -7060,59 +7055,59 @@
         <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>296</v>
+        <v>178</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>79</v>
       </c>
@@ -7130,19 +7125,19 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>111</v>
+        <v>303</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7168,13 +7163,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -7192,31 +7187,31 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>306</v>
+        <v>178</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -7227,10 +7222,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7253,13 +7248,13 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7310,7 +7305,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>190</v>
+        <v>309</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7345,10 +7340,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7359,7 +7354,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -7368,16 +7363,16 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>137</v>
+        <v>311</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>138</v>
+        <v>312</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7416,41 +7411,43 @@
         <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>194</v>
+        <v>310</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>79</v>
+        <v>313</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7461,14 +7458,12 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7477,7 +7472,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7486,19 +7481,19 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7524,13 +7519,13 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
@@ -7548,7 +7543,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>194</v>
+        <v>315</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7557,47 +7552,47 @@
         <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>79</v>
+        <v>323</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7609,16 +7604,20 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>187</v>
+        <v>330</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7666,45 +7665,45 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7724,16 +7723,16 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
+        <v>172</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>328</v>
+        <v>173</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7784,7 +7783,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>326</v>
+        <v>174</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7796,19 +7795,19 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>329</v>
+        <v>175</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7819,10 +7818,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7842,20 +7841,18 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>332</v>
+        <v>136</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>333</v>
+        <v>137</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7880,31 +7877,29 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AC47" s="2"/>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7916,41 +7911,41 @@
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>342</v>
+        <v>79</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>343</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>81</v>
@@ -7959,25 +7954,25 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>349</v>
+        <v>154</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>350</v>
+        <v>155</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -8026,10 +8021,10 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>81</v>
@@ -8038,33 +8033,33 @@
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>352</v>
+        <v>134</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8087,13 +8082,13 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>187</v>
+        <v>316</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>188</v>
+        <v>349</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>189</v>
+        <v>350</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8120,13 +8115,13 @@
         <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>79</v>
@@ -8144,7 +8139,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>190</v>
+        <v>348</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8156,25 +8151,25 @@
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>191</v>
+        <v>354</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50">
@@ -8190,7 +8185,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -8205,16 +8200,20 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>136</v>
+        <v>316</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>137</v>
+        <v>359</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -8238,29 +8237,31 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC50" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>194</v>
+        <v>358</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8272,46 +8273,44 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -8320,21 +8319,23 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>348</v>
+        <v>372</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8382,80 +8383,78 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>194</v>
+        <v>368</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>171</v>
+        <v>383</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8504,34 +8503,34 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>134</v>
+        <v>384</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>79</v>
@@ -8539,10 +8538,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8565,16 +8564,18 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>332</v>
+        <v>171</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8598,13 +8599,13 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -8622,7 +8623,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8637,30 +8638,30 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8668,10 +8669,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8680,22 +8681,22 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>332</v>
+        <v>211</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8720,13 +8721,13 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
@@ -8744,13 +8745,13 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
@@ -8762,31 +8763,31 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>377</v>
+        <v>79</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8802,23 +8803,19 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8866,7 +8863,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8881,30 +8878,30 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>354</v>
+        <v>405</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8915,7 +8912,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8927,17 +8924,19 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="O56" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8986,13 +8985,13 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
@@ -9004,27 +9003,27 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9047,17 +9046,17 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -9082,13 +9081,13 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
@@ -9106,7 +9105,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9124,16 +9123,16 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>354</v>
+        <v>405</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>79</v>
@@ -9141,10 +9140,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9152,7 +9151,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>91</v>
@@ -9164,23 +9163,19 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>227</v>
+        <v>330</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>79</v>
       </c>
@@ -9228,10 +9223,10 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>91</v>
@@ -9246,13 +9241,13 @@
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>354</v>
+        <v>405</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>79</v>
@@ -9263,10 +9258,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9289,13 +9284,13 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>421</v>
+        <v>171</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>422</v>
+        <v>172</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>423</v>
+        <v>173</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9346,7 +9341,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>420</v>
+        <v>174</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9358,25 +9353,25 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60">
@@ -9388,7 +9383,7 @@
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9407,7 +9402,7 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>430</v>
@@ -9416,11 +9411,9 @@
         <v>431</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9468,7 +9461,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>429</v>
+        <v>178</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9480,66 +9473,68 @@
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>434</v>
+        <v>175</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
+        <v>345</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O61" t="s" s="2">
-        <v>440</v>
+        <v>155</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -9564,13 +9559,13 @@
         <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>79</v>
@@ -9588,31 +9583,31 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>437</v>
+        <v>347</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>443</v>
+        <v>134</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -9623,10 +9618,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9649,16 +9644,20 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>346</v>
+        <v>171</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9706,7 +9705,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9724,16 +9723,16 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>79</v>
@@ -9741,10 +9740,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9767,16 +9766,18 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>188</v>
+        <v>442</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>189</v>
+        <v>443</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9800,13 +9801,13 @@
         <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>79</v>
+        <v>445</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -9824,7 +9825,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>190</v>
+        <v>441</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9836,19 +9837,19 @@
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>191</v>
+        <v>438</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>79</v>
+        <v>405</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9859,14 +9860,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9885,16 +9886,16 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>136</v>
+        <v>316</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9920,13 +9921,13 @@
         <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>320</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
@@ -9944,7 +9945,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>194</v>
+        <v>448</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9956,22 +9957,22 @@
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>191</v>
+        <v>452</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>79</v>
@@ -9979,45 +9980,45 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>136</v>
+        <v>330</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>366</v>
+        <v>455</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>367</v>
+        <v>456</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>170</v>
+        <v>457</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>171</v>
+        <v>458</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -10066,31 +10067,31 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>368</v>
+        <v>454</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>134</v>
+        <v>459</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
@@ -10101,10 +10102,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10127,20 +10128,16 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>455</v>
+        <v>172</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>79</v>
       </c>
@@ -10188,7 +10185,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>454</v>
+        <v>174</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10200,22 +10197,22 @@
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>459</v>
+        <v>175</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>79</v>
@@ -10223,10 +10220,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10234,10 +10231,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -10249,18 +10246,16 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>463</v>
+        <v>137</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>464</v>
+        <v>138</v>
       </c>
       <c r="N67" s="2"/>
-      <c r="O67" t="s" s="2">
-        <v>465</v>
-      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10284,55 +10279,53 @@
         <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>258</v>
+        <v>79</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AC67" s="2"/>
       <c r="AD67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>462</v>
+        <v>178</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
@@ -10343,21 +10336,23 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>463</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="D68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10369,16 +10364,16 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>332</v>
+        <v>466</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10404,31 +10399,31 @@
         <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF68" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10437,25 +10432,25 @@
         <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>79</v>
+        <v>149</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>79</v>
@@ -10463,45 +10458,45 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>477</v>
-      </c>
       <c r="N69" t="s" s="2">
-        <v>478</v>
+        <v>154</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>479</v>
+        <v>155</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -10550,31 +10545,31 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>475</v>
+        <v>347</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>480</v>
+        <v>134</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>79</v>
@@ -10585,10 +10580,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10611,16 +10606,18 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>188</v>
+        <v>472</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>189</v>
+        <v>473</v>
       </c>
       <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>79</v>
       </c>
@@ -10668,7 +10665,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>190</v>
+        <v>471</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10680,19 +10677,19 @@
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>191</v>
+        <v>475</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
@@ -10703,21 +10700,21 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>79</v>
+        <v>478</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10726,19 +10723,21 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>136</v>
+        <v>370</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>137</v>
+        <v>479</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>138</v>
+        <v>480</v>
       </c>
       <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10774,41 +10773,43 @@
         <v>79</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC71" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>194</v>
+        <v>477</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -10819,23 +10820,21 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10847,18 +10846,18 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>487</v>
+        <v>158</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>485</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10882,13 +10881,13 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>79</v>
+        <v>487</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -10906,7 +10905,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>194</v>
+        <v>483</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10915,22 +10914,22 @@
         <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>79</v>
+        <v>489</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>79</v>
+        <v>490</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>79</v>
+        <v>461</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10948,7 +10947,7 @@
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>365</v>
+        <v>492</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10961,25 +10960,25 @@
         <v>79</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>136</v>
+        <v>330</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>366</v>
+        <v>493</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>367</v>
+        <v>494</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>170</v>
+        <v>495</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>171</v>
+        <v>496</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -11028,7 +11027,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>368</v>
+        <v>491</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11040,33 +11039,33 @@
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>142</v>
+        <v>497</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>134</v>
+        <v>498</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>79</v>
+        <v>500</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11089,18 +11088,16 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>493</v>
+        <v>172</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>494</v>
+        <v>173</v>
       </c>
       <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>495</v>
-      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>79</v>
       </c>
@@ -11148,7 +11145,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>492</v>
+        <v>174</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11160,19 +11157,19 @@
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>496</v>
+        <v>175</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -11183,21 +11180,21 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>499</v>
+        <v>151</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -11206,21 +11203,21 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>391</v>
+        <v>136</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>79</v>
       </c>
@@ -11268,31 +11265,31 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>498</v>
+        <v>178</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>397</v>
+        <v>175</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>503</v>
+        <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>79</v>
@@ -11310,7 +11307,7 @@
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11323,23 +11320,25 @@
         <v>79</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>505</v>
+        <v>345</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="O76" t="s" s="2">
-        <v>507</v>
+        <v>155</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -11364,13 +11363,13 @@
         <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>508</v>
+        <v>79</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>509</v>
+        <v>79</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>79</v>
@@ -11388,7 +11387,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>504</v>
+        <v>347</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11400,19 +11399,19 @@
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>510</v>
+        <v>134</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>79</v>
@@ -11423,21 +11422,21 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11446,23 +11445,19 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>346</v>
+        <v>506</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11510,45 +11505,45 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>518</v>
+        <v>103</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>519</v>
+        <v>376</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>521</v>
+        <v>79</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11571,16 +11566,20 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>188</v>
+        <v>512</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
       </c>
@@ -11604,13 +11603,13 @@
         <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>516</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>79</v>
@@ -11628,7 +11627,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>190</v>
+        <v>511</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11640,33 +11639,33 @@
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>191</v>
+        <v>518</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>79</v>
+        <v>519</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>79</v>
+        <v>520</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>79</v>
+        <v>521</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11677,7 +11676,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11689,16 +11688,18 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>137</v>
+        <v>523</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>138</v>
+        <v>524</v>
       </c>
       <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>79</v>
       </c>
@@ -11722,56 +11723,58 @@
         <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>526</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AC79" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>194</v>
+        <v>522</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>79</v>
+        <v>528</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>79</v>
+        <v>529</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>79</v>
@@ -11779,14 +11782,12 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11795,7 +11796,7 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11807,17 +11808,15 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>527</v>
+        <v>171</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>528</v>
+        <v>172</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>79</v>
@@ -11866,25 +11865,25 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
@@ -11901,14 +11900,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11921,26 +11920,22 @@
         <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>366</v>
+        <v>137</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11976,19 +11971,19 @@
         <v>79</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>368</v>
+        <v>178</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -12006,7 +12001,7 @@
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
@@ -12023,12 +12018,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>533</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="D82" t="s" s="2">
         <v>79</v>
       </c>
@@ -12046,18 +12043,20 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -12106,45 +12105,45 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>531</v>
+        <v>178</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP82" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12164,22 +12163,22 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>538</v>
+        <v>186</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>539</v>
+        <v>187</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>540</v>
+        <v>188</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>541</v>
+        <v>189</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -12204,13 +12203,13 @@
         <v>79</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>542</v>
+        <v>79</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>79</v>
@@ -12228,7 +12227,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>537</v>
+        <v>190</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12246,27 +12245,27 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>544</v>
+        <v>191</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>546</v>
+        <v>79</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12286,21 +12285,21 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>549</v>
+        <v>193</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12324,13 +12323,13 @@
         <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>552</v>
+        <v>79</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>79</v>
@@ -12348,7 +12347,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>548</v>
+        <v>196</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12366,16 +12365,16 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>554</v>
+        <v>197</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>555</v>
+        <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>79</v>
@@ -12383,10 +12382,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12406,22 +12405,20 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>559</v>
+        <v>199</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>561</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>562</v>
+        <v>201</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>79</v>
@@ -12446,13 +12443,13 @@
         <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>560</v>
+        <v>79</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>563</v>
+        <v>79</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>79</v>
@@ -12470,7 +12467,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>558</v>
+        <v>202</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12488,27 +12485,27 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>564</v>
+        <v>203</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>565</v>
+        <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>557</v>
+        <v>79</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>566</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12519,7 +12516,7 @@
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -12528,22 +12525,20 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>568</v>
+        <v>205</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>570</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>571</v>
+        <v>207</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>79</v>
@@ -12568,13 +12563,13 @@
         <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>572</v>
+        <v>79</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>573</v>
+        <v>79</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>79</v>
@@ -12592,13 +12587,13 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>567</v>
+        <v>208</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>79</v>
@@ -12610,13 +12605,13 @@
         <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>574</v>
+        <v>209</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>575</v>
+        <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>79</v>
@@ -12627,10 +12622,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>576</v>
+        <v>543</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>576</v>
+        <v>543</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12653,19 +12648,19 @@
         <v>92</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>577</v>
+        <v>212</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>578</v>
+        <v>213</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>579</v>
+        <v>214</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>580</v>
+        <v>215</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>79</v>
@@ -12714,7 +12709,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>576</v>
+        <v>216</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12723,7 +12718,7 @@
         <v>91</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>581</v>
+        <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>103</v>
@@ -12732,16 +12727,16 @@
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>582</v>
+        <v>217</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>583</v>
+        <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>584</v>
+        <v>79</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>79</v>
@@ -12749,10 +12744,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>585</v>
+        <v>544</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>585</v>
+        <v>544</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12775,17 +12770,19 @@
         <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="O88" t="s" s="2">
-        <v>580</v>
+        <v>548</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>79</v>
@@ -12810,13 +12807,13 @@
         <v>79</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>79</v>
+        <v>546</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>79</v>
+        <v>549</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>79</v>
@@ -12834,7 +12831,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>585</v>
+        <v>544</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12852,27 +12849,27 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>588</v>
+        <v>550</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>589</v>
+        <v>551</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>79</v>
+        <v>531</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>79</v>
+        <v>552</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>590</v>
+        <v>553</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>590</v>
+        <v>553</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12883,7 +12880,7 @@
         <v>80</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>79</v>
@@ -12892,22 +12889,22 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>591</v>
+        <v>158</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>592</v>
+        <v>554</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>593</v>
+        <v>555</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>594</v>
+        <v>556</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>595</v>
+        <v>557</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>79</v>
@@ -12932,13 +12929,13 @@
         <v>79</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>79</v>
+        <v>559</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>79</v>
@@ -12956,16 +12953,16 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>590</v>
+        <v>553</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>581</v>
+        <v>79</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>103</v>
@@ -12974,13 +12971,13 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>79</v>
@@ -12991,10 +12988,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13005,7 +13002,7 @@
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
@@ -13017,18 +13014,16 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>346</v>
+        <v>171</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>599</v>
+        <v>172</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>600</v>
+        <v>173</v>
       </c>
       <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>601</v>
-      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>79</v>
       </c>
@@ -13076,31 +13071,31 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>598</v>
+        <v>174</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>602</v>
+        <v>175</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>603</v>
+        <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -13111,10 +13106,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>604</v>
+        <v>563</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>604</v>
+        <v>563</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13125,7 +13120,7 @@
         <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>79</v>
@@ -13137,13 +13132,13 @@
         <v>79</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13182,37 +13177,37 @@
         <v>79</v>
       </c>
       <c r="AB91" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
@@ -13229,14 +13224,16 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="D92" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13255,16 +13252,16 @@
         <v>79</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>136</v>
+        <v>566</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>451</v>
+        <v>567</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>452</v>
+        <v>555</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>170</v>
+        <v>568</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13314,7 +13311,7 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13332,7 +13329,7 @@
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
@@ -13349,45 +13346,45 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>606</v>
+        <v>569</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I93" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>366</v>
+        <v>186</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>367</v>
+        <v>187</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>79</v>
@@ -13436,25 +13433,25 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>368</v>
+        <v>190</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
@@ -13471,10 +13468,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>607</v>
+        <v>570</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13482,7 +13479,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>91</v>
@@ -13494,18 +13491,20 @@
         <v>79</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>608</v>
+        <v>193</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>79</v>
@@ -13554,10 +13553,10 @@
         <v>79</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>607</v>
+        <v>196</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>91</v>
@@ -13572,13 +13571,13 @@
         <v>79</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>510</v>
+        <v>197</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>610</v>
+        <v>79</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>79</v>
@@ -13589,10 +13588,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>611</v>
+        <v>571</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>611</v>
+        <v>571</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13600,7 +13599,7 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>91</v>
@@ -13612,22 +13611,20 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>612</v>
+        <v>111</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>613</v>
+        <v>199</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>615</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>616</v>
+        <v>201</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>79</v>
@@ -13676,10 +13673,10 @@
         <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>611</v>
+        <v>202</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>91</v>
@@ -13694,18 +13691,1462 @@
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP95" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP96" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP97" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AP98" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP99" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP100" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP101" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP102" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AC103" s="2"/>
+      <c r="AD103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP103" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP104" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="P105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP105" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP106" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="AM95" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="AN95" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AO95" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP95" t="s" s="2">
+      <c r="O107" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="P107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP107" t="s" s="2">
         <v>79</v>
       </c>
     </row>
